--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43798</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y303"/>
+  <dimension ref="A1:Y305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43798</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="R302" s="2" t="inlineStr"/>
     </row>
-    <row r="303">
+    <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
           <t>A 33928-2023</t>
@@ -18365,7 +18365,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18411,6 +18411,130 @@
         <v>0</v>
       </c>
       <c r="R303" s="2" t="inlineStr"/>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>A 40989-2023</t>
+        </is>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>SÖDERHAMN</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" s="2" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>A 40987-2023</t>
+        </is>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C305" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>SÖDERHAMN</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43798</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43798</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43798</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,14 +1013,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 64630-2019</t>
+          <t>A 39885-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43798</v>
+        <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1060,128 +1060,129 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Hapalopilus aurantiacus
+Blodticka
+Sotriska</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 39885-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 39885-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 39885-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 39885-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 39885-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 39885-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 64630-2019</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43798</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SÖDERHAMN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Violgubbe
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 64630-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 64630-2019.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 64630-2019.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 64630-2019.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 64630-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 64630-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 39885-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45168</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45179</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SÖDERHAMN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Hapalopilus aurantiacus
-Blodticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 39885-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 39885-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 39885-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 39885-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 39885-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 39885-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1192,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1860,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1917,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1974,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2031,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2088,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2145,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2202,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2259,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2316,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3994,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4056,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4113,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4227,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4284,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4574,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4760,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4817,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4931,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4988,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5045,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5102,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5159,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5273,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5330,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5444,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5501,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5558,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5620,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5677,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5734,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5796,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5858,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6029,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6086,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6200,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6257,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6314,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6371,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6428,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6547,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6604,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6661,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6785,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6842,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7137,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7375,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7432,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7489,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7546,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7608,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7665,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7722,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7779,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7836,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7893,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7955,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8017,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8079,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8141,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8198,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8255,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8312,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8369,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9115,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9172,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9229,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9286,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9343,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9695,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9752,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9866,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9980,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10037,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10151,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10208,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10265,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11234,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11291,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11415,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11472,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12793,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12907,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12964,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13026,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13140,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13197,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13430,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13492,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13554,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13611,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13668,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13725,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14476,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14538,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14600,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14657,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14714,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14771,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14828,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14885,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14999,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15056,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15113,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15175,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15232,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15289,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15346,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15403,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15460,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15517,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15574,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15631,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15688,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15745,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15802,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15859,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15916,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15973,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16035,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16097,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16154,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16216,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16278,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16340,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16397,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16454,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16511,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16625,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16687,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16749,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16806,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16868,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17339,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17396,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17453,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17510,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17567,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17624,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17681,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17738,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17795,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17852,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17909,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17966,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18023,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18080,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18137,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18194,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18251,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18308,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18365,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18422,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18484,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y305"/>
+  <dimension ref="A1:Y306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="R304" s="2" t="inlineStr"/>
     </row>
-    <row r="305">
+    <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
           <t>A 40987-2023</t>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18536,6 +18536,68 @@
         <v>0</v>
       </c>
       <c r="R305" s="2" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>A 42336-2023</t>
+        </is>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C306" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>SÖDERHAMN</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>3</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 8176-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 8176-2020.xlsx", "A 8176-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 8176-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 8176-2020.png", "A 8176-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 8176-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 8176-2020.docx", "A 8176-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 8176-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 8176-2020.docx", "A 8176-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 8176-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 8176-2020.docx", "A 8176-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 8176-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 8176-2020.docx", "A 8176-2020")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 13800-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 13800-2021.xlsx", "A 13800-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 13800-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 13800-2021.png", "A 13800-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 13800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 13800-2021.docx", "A 13800-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 13800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 13800-2021.docx", "A 13800-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 13800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 13800-2021.docx", "A 13800-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 13800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 13800-2021.docx", "A 13800-2021")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -807,27 +807,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 65976-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 65976-2019.xlsx", "A 65976-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 65976-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 65976-2019.png", "A 65976-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 65976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 65976-2019.docx", "A 65976-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 65976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 65976-2019.docx", "A 65976-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 65976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 65976-2019.docx", "A 65976-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 65976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 65976-2019.docx", "A 65976-2019")</f>
         <v/>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,27 +895,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 55426-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 55426-2019.xlsx", "A 55426-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 55426-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 55426-2019.png", "A 55426-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 55426-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 55426-2019.docx", "A 55426-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 55426-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 55426-2019.docx", "A 55426-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 55426-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 55426-2019.docx", "A 55426-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 55426-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 55426-2019.docx", "A 55426-2019")</f>
         <v/>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 33767-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 33767-2020.xlsx", "A 33767-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 33767-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 33767-2020.png", "A 33767-2020")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/knärot/A 33767-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/knärot/A 33767-2020.png", "A 33767-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 33767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 33767-2020.docx", "A 33767-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 33767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 33767-2020.docx", "A 33767-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 33767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 33767-2020.docx", "A 33767-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 33767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 33767-2020.docx", "A 33767-2020")</f>
         <v/>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,27 +1073,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 39885-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 39885-2023.xlsx", "A 39885-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 39885-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 39885-2023.png", "A 39885-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 39885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 39885-2023.docx", "A 39885-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 39885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 39885-2023.docx", "A 39885-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 39885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 39885-2023.docx", "A 39885-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 39885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 39885-2023.docx", "A 39885-2023")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1159,27 +1159,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 64630-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 64630-2019.xlsx", "A 64630-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 64630-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 64630-2019.png", "A 64630-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 64630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 64630-2019.docx", "A 64630-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 64630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 64630-2019.docx", "A 64630-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 64630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 64630-2019.docx", "A 64630-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 64630-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 64630-2019.docx", "A 64630-2019")</f>
         <v/>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1249,27 +1249,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 63515-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 63515-2018.xlsx", "A 63515-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 63515-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 63515-2018.png", "A 63515-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 63515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 63515-2018.docx", "A 63515-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 63515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 63515-2018.docx", "A 63515-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 63515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 63515-2018.docx", "A 63515-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 63515-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 63515-2018.docx", "A 63515-2018")</f>
         <v/>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1339,27 +1339,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 19702-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 19702-2020.xlsx", "A 19702-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 19702-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 19702-2020.png", "A 19702-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 19702-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 19702-2020.docx", "A 19702-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 19702-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 19702-2020.docx", "A 19702-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 19702-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 19702-2020.docx", "A 19702-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 19702-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 19702-2020.docx", "A 19702-2020")</f>
         <v/>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,27 +1424,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 13798-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 13798-2021.xlsx", "A 13798-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 13798-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 13798-2021.png", "A 13798-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 13798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 13798-2021.docx", "A 13798-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 13798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 13798-2021.docx", "A 13798-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 13798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 13798-2021.docx", "A 13798-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 13798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 13798-2021.docx", "A 13798-2021")</f>
         <v/>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,27 +1509,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 41258-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 41258-2022.xlsx", "A 41258-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 41258-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 41258-2022.png", "A 41258-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 41258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 41258-2022.docx", "A 41258-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 41258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 41258-2022.docx", "A 41258-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 41258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 41258-2022.docx", "A 41258-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 41258-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 41258-2022.docx", "A 41258-2022")</f>
         <v/>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1594,27 +1594,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 27148-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/artfynd/A 27148-2023.xlsx", "A 27148-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 27148-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/kartor/A 27148-2023.png", "A 27148-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 27148-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomål/A 27148-2023.docx", "A 27148-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 27148-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/klagomålsmail/A 27148-2023.docx", "A 27148-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 27148-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsyn/A 27148-2023.docx", "A 27148-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 27148-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERHAMN/tillsynsmail/A 27148-2023.docx", "A 27148-2023")</f>
         <v/>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y306"/>
+  <dimension ref="A1:Y307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
       </c>
       <c r="R305" s="2" t="inlineStr"/>
     </row>
-    <row r="306">
+    <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
           <t>A 42336-2023</t>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18598,6 +18598,63 @@
         <v>0</v>
       </c>
       <c r="R306" s="2" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>A 47288-2023</t>
+        </is>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C307" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>SÖDERHAMN</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45202</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45202</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44275</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43756</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45168</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>43798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>43427</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43941</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>44275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44826</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45096</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43410</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43431</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43434</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43447</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43447</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>43454</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>43455</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>43461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43487</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43487</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43500</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43500</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43511</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43511</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43511</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43525</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43536</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43559</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43570</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43607</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43621</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43626</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43630</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43643</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43669</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>43679</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>43682</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43723</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43725</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43732</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43732</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43732</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43734</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43746</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43759</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>43761</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>43766</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43783</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>43801</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>43804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>43815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43818</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43845</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43857</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43860</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43871</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43871</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43872</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43885</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43908</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43910</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43917</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43943</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43966</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43970</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43984</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44008</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>44008</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44008</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>44011</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44026</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44026</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44040</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44041</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44053</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44060</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44063</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44064</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44082</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44095</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44104</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44118</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44118</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44118</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44119</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44123</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44130</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44130</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44130</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44133</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44139</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44147</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44155</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44158</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44159</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44179</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>44187</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44201</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44201</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44209</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44209</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44214</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44217</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44217</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44218</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44218</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44218</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44218</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44218</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44218</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44229</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44231</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44239</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44266</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44292</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44292</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44302</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44326</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44384</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44392</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44417</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44476</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44487</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44498</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44529</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44544</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44546</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44564</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44637</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44651</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44665</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44683</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44686</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44698</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44698</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>44732</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44740</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44740</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44748</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44750</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44799</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44805</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44812</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44817</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>44823</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44824</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44824</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44838</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44841</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44846</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44847</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44851</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44856</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>44861</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44880</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44881</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>44883</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44895</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44900</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44901</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44908</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44917</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44917</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44937</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44983</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44983</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44992</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45012</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45027</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45027</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45028</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45028</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45028</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45033</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45035</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45040</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45048</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45051</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45063</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45065</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45069</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45069</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45069</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45069</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45071</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45078</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45084</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45089</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45090</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45093</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45096</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45098</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45099</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45099</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45099</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45099</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45108</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45108</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45134</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45173</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45180</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45202</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
